--- a/HW5/Raw Data.xlsx
+++ b/HW5/Raw Data.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>AVL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Data Structure</t>
   </si>
@@ -42,18 +39,6 @@
 (int size = ___ )</t>
   </si>
   <si>
-    <t>Search Repetitions
-(j &lt; ___ )</t>
-  </si>
-  <si>
-    <t>Time to Build
-(seconds)</t>
-  </si>
-  <si>
-    <t>Time to Search
-(seconds)</t>
-  </si>
-  <si>
     <t>AVL Average:</t>
   </si>
   <si>
@@ -62,12 +47,27 @@
   <si>
     <t>Array Average:</t>
   </si>
+  <si>
+    <t>Build Time
+(seconds)</t>
+  </si>
+  <si>
+    <t>Search Time
+(seconds)</t>
+  </si>
+  <si>
+    <t># of Repetitions
+(j &lt; ___ )</t>
+  </si>
+  <si>
+    <t>AVL Tree</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,15 +76,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -99,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -111,85 +126,214 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -197,40 +341,65 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,290 +680,356 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.53125" customWidth="1"/>
-    <col min="2" max="2" width="15.265625" customWidth="1"/>
-    <col min="3" max="3" width="18.265625" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.19921875" customWidth="1"/>
+    <col min="3" max="3" width="17.9296875" customWidth="1"/>
+    <col min="4" max="4" width="13.1328125" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="10" t="s">
+    <row r="1" spans="1:5" ht="36.4" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="14">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="8">
         <v>100000</v>
       </c>
       <c r="C2" s="14">
         <v>20000000</v>
       </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17">
+        <v>0</v>
+      </c>
+      <c r="E3" s="17">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17">
         <v>1</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="17">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2">
+    <row r="6" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="2"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19">
+        <v>0</v>
+      </c>
+      <c r="E6" s="19">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="3"/>
+    <row r="7" spans="1:5" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="7"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="str">
+        <v>4</v>
+      </c>
+      <c r="D7" s="12" t="str">
         <f>AVERAGE(D2:D6)&amp;" sec"</f>
         <v>0.2 sec</v>
       </c>
-      <c r="E7" s="2" t="str">
+      <c r="E7" s="13" t="str">
         <f>AVERAGE(E2:E6)&amp;" sec"</f>
         <v>25 sec</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9">
+        <v>100000</v>
+      </c>
+      <c r="C8" s="14">
+        <v>20000000</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0</v>
+      </c>
+      <c r="E8" s="15">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17">
+        <v>1</v>
+      </c>
+      <c r="E9" s="17">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="2"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17">
+        <v>1</v>
+      </c>
+      <c r="E10" s="17">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="2"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="2"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19">
+        <v>0</v>
+      </c>
+      <c r="E12" s="19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="7"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="12" t="str">
+        <f>AVERAGE(D8:D12)&amp;" sec"</f>
+        <v>0.4 sec</v>
+      </c>
+      <c r="E13" s="13" t="str">
+        <f>AVERAGE(E8:E12)&amp;" sec"</f>
+        <v>32.8 sec</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B14" s="9">
         <v>100000</v>
       </c>
-      <c r="C9" s="14">
-        <v>20000000</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="1" t="str">
-        <f>AVERAGE(D9:D13)&amp;" sec"</f>
-        <v>0.4 sec</v>
-      </c>
-      <c r="E14" s="2" t="str">
-        <f>AVERAGE(E9:E13)&amp;" sec"</f>
-        <v>32.8 sec</v>
+      <c r="C14" s="14">
+        <v>100000</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0</v>
+      </c>
+      <c r="E14" s="15">
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17">
+        <v>0</v>
+      </c>
+      <c r="E15" s="17">
+        <v>129</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="14">
+      <c r="A16" s="2"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17">
+        <v>0</v>
+      </c>
+      <c r="E16" s="17">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="2"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="17">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="2"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19">
+        <v>0</v>
+      </c>
+      <c r="E18" s="19">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="3"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="12" t="str">
+        <f>AVERAGE(D14:D18)&amp;" sec"</f>
+        <v>0 sec</v>
+      </c>
+      <c r="E19" s="13" t="str">
+        <f>AVERAGE(E14:E18)&amp;" sec"</f>
+        <v>129.4 sec</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="9">
         <v>100000</v>
       </c>
-      <c r="C16" s="14">
-        <v>100000</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>128</v>
+      <c r="C20" s="14">
+        <v>200000</v>
+      </c>
+      <c r="D20" s="15">
+        <v>0</v>
+      </c>
+      <c r="E20" s="15">
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="6" t="str">
-        <f>AVERAGE(D16:D20)&amp;" sec"</f>
+      <c r="A21" s="2"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17">
+        <v>0</v>
+      </c>
+      <c r="E21" s="17">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="2"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17">
+        <v>0</v>
+      </c>
+      <c r="E22" s="17">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="2"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17">
+        <v>0</v>
+      </c>
+      <c r="E23" s="17">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="2"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19">
+        <v>0</v>
+      </c>
+      <c r="E24" s="19">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="3"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="12" t="str">
+        <f>AVERAGE(D20:D24)&amp;" sec"</f>
         <v>0 sec</v>
       </c>
-      <c r="E21" s="7" t="str">
-        <f>AVERAGE(E16:E20)&amp;" sec"</f>
-        <v>129.4 sec</v>
+      <c r="E25" s="13" t="str">
+        <f>AVERAGE(E20:E24)&amp;" sec"</f>
+        <v>251.2 sec</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="C20:C24"/>
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A14:A18"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="C2:C6"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="C16:C20"/>
-    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="B14:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
